--- a/Documentos/Contable.xlsx
+++ b/Documentos/Contable.xlsx
@@ -558,7 +558,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,7 +621,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -630,7 +630,7 @@
       </c>
       <c r="B7" s="3">
         <f>B5-B6</f>
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos/Contable.xlsx
+++ b/Documentos/Contable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="36" windowWidth="22116" windowHeight="9552"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="20730" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Modificaciones Sistema V 1.2</t>
   </si>
@@ -46,13 +46,19 @@
   </si>
   <si>
     <t>Pantalla Reforma</t>
+  </si>
+  <si>
+    <t>Pantalla de partidas</t>
+  </si>
+  <si>
+    <t>Cancelado reformas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,7 +76,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -78,8 +92,16 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -239,11 +261,6 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -254,6 +271,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,82 +577,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="3">
         <v>45</v>
       </c>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="3">
         <v>240</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:3" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="4">
         <v>180</v>
       </c>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <f>SUM(B2:B4)</f>
         <v>465</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="8">
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <f>B5-B6</f>
-        <v>270</v>
+      <c r="B8" s="9">
+        <f>B5-B7-B6</f>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +677,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -657,7 +689,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
